--- a/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外承包工程完成营业额/中国对大洋洲各国(地区)承包工程完成营业额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外承包工程完成营业额/中国对大洋洲各国(地区)承包工程完成营业额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,107 +558,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>12322</v>
+        <v>153039</v>
       </c>
       <c r="G2" t="n">
-        <v>1426</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>5003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1265</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>20157</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>120</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>428</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>14166</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12762</v>
+      </c>
       <c r="N2" t="n">
-        <v>60</v>
+        <v>2884</v>
       </c>
       <c r="O2" t="n">
-        <v>55</v>
+        <v>5390</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>1131</v>
+        <v>93323</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>2792</v>
-      </c>
+      <c r="T2" t="n">
+        <v>1087</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>141</v>
+        <v>3119</v>
       </c>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>16</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>10487</v>
+        <v>232265</v>
       </c>
       <c r="G3" t="n">
-        <v>1180</v>
+        <v>390</v>
       </c>
       <c r="H3" t="n">
-        <v>4006</v>
-      </c>
-      <c r="I3" t="n">
-        <v>710</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>100171</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>793</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>13664</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5710</v>
+      </c>
       <c r="N3" t="n">
-        <v>1084</v>
+        <v>3826</v>
       </c>
       <c r="O3" t="n">
-        <v>311</v>
+        <v>9806</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>2326</v>
+        <v>94474</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>21</v>
+        <v>678</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>48</v>
+        <v>3531</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -666,380 +664,386 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>9116</v>
-      </c>
-      <c r="G4" t="n">
-        <v>601</v>
-      </c>
+        <v>206900</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1303</v>
-      </c>
-      <c r="I4" t="n">
-        <v>478</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>38985</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2464</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>17775</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4413</v>
+      </c>
       <c r="N4" t="n">
-        <v>216</v>
+        <v>5277</v>
       </c>
       <c r="O4" t="n">
-        <v>345</v>
+        <v>9971</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>3703</v>
+        <v>105994</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>1699</v>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>182</v>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>129</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1507</v>
+      </c>
       <c r="F5" t="n">
-        <v>5564</v>
-      </c>
-      <c r="G5" t="n">
-        <v>595</v>
-      </c>
+        <v>204927</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1123</v>
-      </c>
-      <c r="I5" t="n">
-        <v>105</v>
-      </c>
+        <v>45055</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1588</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>14133</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4100</v>
+      </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>9578</v>
       </c>
       <c r="O5" t="n">
-        <v>186</v>
+        <v>4711</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1726</v>
+        <v>125061</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>33</v>
+        <v>537</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>229</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>257</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>26</v>
+      </c>
       <c r="F6" t="n">
-        <v>9474</v>
+        <v>224761</v>
       </c>
       <c r="G6" t="n">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="H6" t="n">
-        <v>1323</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
+        <v>70426</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>837</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3572</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>12904</v>
+      </c>
+      <c r="M6" t="n">
+        <v>220</v>
+      </c>
       <c r="N6" t="n">
-        <v>356</v>
+        <v>14815</v>
       </c>
       <c r="O6" t="n">
-        <v>576</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
+        <v>1832</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>2235</v>
+        <v>114742</v>
       </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>383</v>
+        <v>5387</v>
       </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>90</v>
+        <v>1559</v>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>377</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" t="n">
-        <v>7035</v>
+        <v>222313</v>
       </c>
       <c r="G7" t="n">
-        <v>361</v>
+        <v>902</v>
       </c>
       <c r="H7" t="n">
-        <v>2036</v>
+        <v>60010</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>64</v>
+        <v>1600</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1279</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>15380</v>
+      </c>
+      <c r="M7" t="n">
+        <v>90</v>
+      </c>
       <c r="N7" t="n">
-        <v>206</v>
+        <v>11749</v>
       </c>
       <c r="O7" t="n">
-        <v>236</v>
+        <v>2177</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>1738</v>
+        <v>121217</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>164</v>
+        <v>4433</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>900</v>
+        <v>4165</v>
       </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>51</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>898</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>30681</v>
-      </c>
-      <c r="G8" t="n">
-        <v>478</v>
-      </c>
+        <v>407936</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2876</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>54491</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
       <c r="J8" t="n">
-        <v>230</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>2150</v>
+      </c>
+      <c r="K8" t="n">
+        <v>482</v>
+      </c>
       <c r="L8" t="n">
-        <v>1057</v>
+        <v>14171</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>2829</v>
+        <v>20671</v>
       </c>
       <c r="O8" t="n">
-        <v>180</v>
+        <v>4492</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>19926</v>
+        <v>292578</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>14005</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>721</v>
+        <v>3842</v>
       </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>2370</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>444</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>41838</v>
+        <v>450601</v>
       </c>
       <c r="G9" t="n">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="H9" t="n">
-        <v>18063</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>55698</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
       <c r="J9" t="n">
-        <v>68</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>1035</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1863</v>
+      </c>
       <c r="L9" t="n">
-        <v>918</v>
+        <v>18441</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>743</v>
+        <v>15816</v>
       </c>
       <c r="O9" t="n">
-        <v>188</v>
-      </c>
-      <c r="P9" t="n">
-        <v>128</v>
-      </c>
+        <v>3311</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>20046</v>
+        <v>337472</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>453</v>
+        <v>13921</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>759</v>
+        <v>2167</v>
       </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>300</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>236</v>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>108</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>106830</v>
+        <v>506632</v>
       </c>
       <c r="G10" t="n">
-        <v>945</v>
+        <v>501</v>
       </c>
       <c r="H10" t="n">
-        <v>31752</v>
+        <v>49128</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>153</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>1052</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1927</v>
+      </c>
       <c r="L10" t="n">
-        <v>1904</v>
+        <v>22167</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="N10" t="n">
-        <v>4386</v>
+        <v>19905</v>
       </c>
       <c r="O10" t="n">
-        <v>800</v>
-      </c>
-      <c r="P10" t="n">
-        <v>279</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>65370</v>
+        <v>400216</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>266</v>
+        <v>8880</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>935</v>
+        <v>1143</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1047,7 +1051,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1055,54 +1059,54 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>200578</v>
+        <v>520718</v>
       </c>
       <c r="G11" t="n">
-        <v>510</v>
+        <v>642</v>
       </c>
       <c r="H11" t="n">
-        <v>63591</v>
+        <v>71928</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>23</v>
+      </c>
       <c r="L11" t="n">
-        <v>5774</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8714</v>
-      </c>
+        <v>17474</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>3642</v>
+        <v>24921</v>
       </c>
       <c r="O11" t="n">
-        <v>2310</v>
-      </c>
-      <c r="P11" t="n">
-        <v>441</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>112396</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+        <v>391614</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2192</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>127</v>
+        <v>9290</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>1469</v>
+        <v>2574</v>
       </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1110,44 +1114,38 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>153039</v>
-      </c>
-      <c r="G12" t="n">
-        <v>31</v>
-      </c>
+        <v>514999</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>20157</v>
+        <v>75607</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>120</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>14166</v>
-      </c>
-      <c r="M12" t="n">
-        <v>12762</v>
-      </c>
+        <v>20647</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2884</v>
+        <v>15870</v>
       </c>
       <c r="O12" t="n">
-        <v>5390</v>
+        <v>731</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>93323</v>
+        <v>390368</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>1087</v>
+        <v>5864</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3119</v>
+        <v>783</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
@@ -1155,544 +1153,61 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>852</v>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>232265</v>
+        <v>555580</v>
       </c>
       <c r="G13" t="n">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="H13" t="n">
-        <v>100171</v>
+        <v>63697</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>15</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6535</v>
+      </c>
       <c r="L13" t="n">
-        <v>13664</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5710</v>
-      </c>
+        <v>17237</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3826</v>
+        <v>22090</v>
       </c>
       <c r="O13" t="n">
-        <v>9806</v>
+        <v>451</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>94474</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+        <v>436379</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2618</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>678</v>
+        <v>4429</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3531</v>
+        <v>692</v>
       </c>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>206900</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>38985</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>15</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>17775</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4413</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5277</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9971</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>105994</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1699</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>182</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>1507</v>
-      </c>
-      <c r="F15" t="n">
-        <v>204927</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>45055</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>16</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>14133</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4100</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9578</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4711</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>125061</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>537</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>229</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F16" t="n">
-        <v>224761</v>
-      </c>
-      <c r="G16" t="n">
-        <v>258</v>
-      </c>
-      <c r="H16" t="n">
-        <v>70426</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>837</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>12904</v>
-      </c>
-      <c r="M16" t="n">
-        <v>220</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14815</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1832</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>114742</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>5387</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>1559</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>377</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>222313</v>
-      </c>
-      <c r="G17" t="n">
-        <v>902</v>
-      </c>
-      <c r="H17" t="n">
-        <v>60010</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>15380</v>
-      </c>
-      <c r="M17" t="n">
-        <v>90</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11749</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2177</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>121217</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>4433</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>4165</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>898</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>407936</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>54491</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2150</v>
-      </c>
-      <c r="K18" t="n">
-        <v>482</v>
-      </c>
-      <c r="L18" t="n">
-        <v>14171</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>20671</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4492</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>292578</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>14005</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>3842</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>444</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>450601</v>
-      </c>
-      <c r="G19" t="n">
-        <v>425</v>
-      </c>
-      <c r="H19" t="n">
-        <v>55698</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1035</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1863</v>
-      </c>
-      <c r="L19" t="n">
-        <v>18441</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>15816</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3311</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>337472</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>13921</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>2167</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>236</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>108</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>506632</v>
-      </c>
-      <c r="G20" t="n">
-        <v>501</v>
-      </c>
-      <c r="H20" t="n">
-        <v>49128</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1927</v>
-      </c>
-      <c r="L20" t="n">
-        <v>22167</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1200</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19905</v>
-      </c>
-      <c r="O20" t="n">
-        <v>170</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>400216</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>8880</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>1143</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>520718</v>
-      </c>
-      <c r="G21" t="n">
-        <v>642</v>
-      </c>
-      <c r="H21" t="n">
-        <v>71928</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>23</v>
-      </c>
-      <c r="L21" t="n">
-        <v>17474</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>24921</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>391614</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2192</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>9290</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>2574</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>514999</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>75607</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>20647</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>15870</v>
-      </c>
-      <c r="O22" t="n">
-        <v>731</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>390368</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>5864</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>783</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
